--- a/results/tables/averaged_top1_exclusion_database_scores.xlsx
+++ b/results/tables/averaged_top1_exclusion_database_scores.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NBC</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">

--- a/results/tables/averaged_top1_exclusion_database_scores.xlsx
+++ b/results/tables/averaged_top1_exclusion_database_scores.xlsx
@@ -608,19 +608,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="E8">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F8">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="G8">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H8">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9">
@@ -631,7 +631,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mothur</t>
+          <t>CustomNBC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -643,7 +643,7 @@
         <v>0.28</v>
       </c>
       <c r="E9">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="F9">
         <v>0.33</v>

--- a/results/tables/averaged_top1_exclusion_database_scores.xlsx
+++ b/results/tables/averaged_top1_exclusion_database_scores.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -608,19 +608,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="E8">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F8">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="G8">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H8">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="9">
@@ -631,7 +631,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CustomNBC</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="E9">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="F9">
         <v>0.33</v>
       </c>
       <c r="G9">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="H9">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10">
@@ -663,7 +663,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BLAST100</t>
+          <t>MMSeqs2_97</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E10">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F10">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G10">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="H10">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/averaged_top1_exclusion_database_scores.xlsx
+++ b/results/tables/averaged_top1_exclusion_database_scores.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -608,19 +608,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="E8">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="F8">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G8">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="H8">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9">
@@ -631,7 +631,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="E9">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="F9">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="G9">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="H9">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10">
@@ -663,7 +663,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MMSeqs2_97</t>
+          <t>Mothur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="E10">
-        <v>0.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F10">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G10">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="H10">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
